--- a/Testdata/ManageQADataPage_Data_PROD.xlsx
+++ b/Testdata/ManageQADataPage_Data_PROD.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VersionControl\pse.autotest\Testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6771274-16B5-41D2-AE52-07BA266F6B95}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07C28A02-1FD2-46E7-8477-B2FABA1EEB65}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -106,12 +106,6 @@
     <t>Report-</t>
   </si>
   <si>
-    <t>ExcelReport-NewImportLogic_1 - Test_Automation_1-Interventional-</t>
-  </si>
-  <si>
-    <t>WordReport-NewImportLogic_1 - Test_Automation_1-Interventional-</t>
-  </si>
-  <si>
     <t>ExcelReport-NewImportLogic_1 - Test_Automation_1-Economic-</t>
   </si>
   <si>
@@ -173,6 +167,12 @@
   </si>
   <si>
     <t>WordReport-Takeda - MM Maintenance-Real-world Evidence-</t>
+  </si>
+  <si>
+    <t>ExcelReport-NewImportLogic_1 - Test_Automation_1-Clinical-</t>
+  </si>
+  <si>
+    <t>WordReport-NewImportLogic_1 - Test_Automation_1-Clinical-</t>
   </si>
 </sst>
 </file>
@@ -208,12 +208,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -497,19 +496,17 @@
   <dimension ref="A1:G18"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="E1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="24.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="5.88671875" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="24.44140625" style="2"/>
-    <col min="3" max="3" width="17.77734375" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="76" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="87.21875" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="69.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="64.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="24.44140625" style="2"/>
+    <col min="1" max="1" width="5.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.77734375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="76" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="87.21875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="69.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="64.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
@@ -529,7 +526,7 @@
         <v>5</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G1" t="s">
         <v>21</v>
@@ -542,17 +539,17 @@
       <c r="B2" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="D2" s="2" t="s">
+      <c r="C2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D2" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="2" t="s">
-        <v>32</v>
+      <c r="F2" t="s">
+        <v>30</v>
       </c>
       <c r="G2" t="s">
         <v>22</v>
@@ -562,70 +559,65 @@
       <c r="A3" t="s">
         <v>16</v>
       </c>
-      <c r="B3"/>
-      <c r="C3" s="2" t="s">
+      <c r="C3" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" t="s">
         <v>7</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="E3" t="s">
         <v>11</v>
       </c>
-      <c r="F3" s="2" t="s">
-        <v>33</v>
+      <c r="F3" t="s">
+        <v>31</v>
       </c>
       <c r="G3" t="s">
-        <v>23</v>
+        <v>44</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>16</v>
       </c>
-      <c r="B4"/>
-      <c r="C4" s="2" t="s">
+      <c r="C4" t="s">
         <v>1</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="D4" t="s">
         <v>8</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="E4" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="2" t="s">
-        <v>34</v>
+      <c r="F4" t="s">
+        <v>32</v>
       </c>
       <c r="G4" t="s">
-        <v>24</v>
+        <v>45</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>16</v>
       </c>
-      <c r="B5"/>
-      <c r="C5" s="2" t="s">
+      <c r="C5" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="D5" t="s">
         <v>9</v>
       </c>
-      <c r="E5" s="2" t="s">
+      <c r="E5" t="s">
         <v>13</v>
       </c>
-      <c r="F5" s="2" t="s">
-        <v>35</v>
+      <c r="F5" t="s">
+        <v>33</v>
       </c>
       <c r="G5" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6"/>
-      <c r="B6"/>
       <c r="G6" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
@@ -635,162 +627,159 @@
       <c r="B7" t="s">
         <v>15</v>
       </c>
-      <c r="C7" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="D7" s="2" t="s">
+      <c r="C7" t="s">
+        <v>34</v>
+      </c>
+      <c r="D7" t="s">
         <v>6</v>
       </c>
-      <c r="E7" s="2" t="s">
+      <c r="E7" t="s">
         <v>10</v>
       </c>
-      <c r="F7" s="2" t="s">
-        <v>32</v>
+      <c r="F7" t="s">
+        <v>30</v>
       </c>
       <c r="G7" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>14</v>
       </c>
-      <c r="B8"/>
-      <c r="C8" s="2" t="s">
+      <c r="C8" t="s">
         <v>0</v>
       </c>
-      <c r="D8" s="2" t="s">
+      <c r="D8" t="s">
         <v>7</v>
       </c>
-      <c r="E8" s="2" t="s">
+      <c r="E8" t="s">
         <v>11</v>
       </c>
-      <c r="F8" s="2" t="s">
-        <v>33</v>
+      <c r="F8" t="s">
+        <v>31</v>
       </c>
       <c r="G8" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>14</v>
       </c>
-      <c r="B9"/>
-      <c r="C9" s="2" t="s">
+      <c r="C9" t="s">
         <v>1</v>
       </c>
-      <c r="D9" s="2" t="s">
+      <c r="D9" t="s">
         <v>8</v>
       </c>
-      <c r="E9" s="2" t="s">
+      <c r="E9" t="s">
         <v>12</v>
       </c>
-      <c r="F9" s="2" t="s">
-        <v>34</v>
+      <c r="F9" t="s">
+        <v>32</v>
       </c>
       <c r="G9" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>14</v>
       </c>
-      <c r="B10"/>
-      <c r="C10" s="2" t="s">
+      <c r="C10" t="s">
         <v>2</v>
       </c>
-      <c r="D10" s="2" t="s">
+      <c r="D10" t="s">
         <v>9</v>
       </c>
-      <c r="E10" s="2" t="s">
+      <c r="E10" t="s">
         <v>13</v>
       </c>
-      <c r="F10" s="2" t="s">
-        <v>35</v>
+      <c r="F10" t="s">
+        <v>33</v>
       </c>
       <c r="G10" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="G11" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>20</v>
+      </c>
+      <c r="B12" t="s">
+        <v>35</v>
+      </c>
+      <c r="C12" t="s">
+        <v>34</v>
+      </c>
+      <c r="D12" t="s">
+        <v>6</v>
+      </c>
+      <c r="G12" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>20</v>
+      </c>
+      <c r="C13" t="s">
+        <v>0</v>
+      </c>
+      <c r="D13" t="s">
+        <v>7</v>
+      </c>
+      <c r="G13" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A12" s="2" t="s">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
         <v>20</v>
       </c>
-      <c r="B12" t="s">
-        <v>37</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="G12" t="s">
+      <c r="C14" t="s">
+        <v>1</v>
+      </c>
+      <c r="D14" t="s">
+        <v>8</v>
+      </c>
+      <c r="G14" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A13" s="2" t="s">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
         <v>20</v>
       </c>
-      <c r="C13" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="G13" t="s">
+      <c r="C15" t="s">
+        <v>2</v>
+      </c>
+      <c r="D15" t="s">
+        <v>9</v>
+      </c>
+      <c r="G15" t="s">
         <v>40</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A14" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="G14" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A15" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G15" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="G16" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="17" spans="7:7" x14ac:dyDescent="0.3">
       <c r="G17" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="18" spans="7:7" x14ac:dyDescent="0.3">
       <c r="G18" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>

--- a/Testdata/ManageQADataPage_Data_PROD.xlsx
+++ b/Testdata/ManageQADataPage_Data_PROD.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26327"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VersionControl\pse.autotest\Testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07C28A02-1FD2-46E7-8477-B2FABA1EEB65}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{007200DA-FFEB-4211-AFE6-EE8E04974730}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="41">
   <si>
     <t>Economic</t>
   </si>
@@ -103,27 +103,6 @@
     <t>ExpectedFilenames</t>
   </si>
   <si>
-    <t>Report-</t>
-  </si>
-  <si>
-    <t>ExcelReport-NewImportLogic_1 - Test_Automation_1-Economic-</t>
-  </si>
-  <si>
-    <t>WordReport-NewImportLogic_1 - Test_Automation_1-Economic-</t>
-  </si>
-  <si>
-    <t>ExcelReport-NewImportLogic_1 - Test_Automation_1-Quality of Life-</t>
-  </si>
-  <si>
-    <t>WordReport-NewImportLogic_1 - Test_Automation_1-Quality of Life-</t>
-  </si>
-  <si>
-    <t>ExcelReport-NewImportLogic_1 - Test_Automation_1-Real-world Evidence-</t>
-  </si>
-  <si>
-    <t>WordReport-NewImportLogic_1 - Test_Automation_1-Real-world Evidence-</t>
-  </si>
-  <si>
     <t>Invalid_Files</t>
   </si>
   <si>
@@ -145,34 +124,40 @@
     <t>Takeda - MM Maintenance</t>
   </si>
   <si>
-    <t>ExcelReport-Takeda - MM Maintenance-Clinical-</t>
-  </si>
-  <si>
     <t>WordReport-Takeda - MM Maintenance-Clinical-</t>
   </si>
   <si>
-    <t>ExcelReport-Takeda - MM Maintenance-Economic-</t>
-  </si>
-  <si>
     <t>WordReport-Takeda - MM Maintenance-Economic-</t>
   </si>
   <si>
-    <t>ExcelReport-Takeda - MM Maintenance-Quality of Life-</t>
-  </si>
-  <si>
     <t>WordReport-Takeda - MM Maintenance-Quality of Life-</t>
   </si>
   <si>
-    <t>ExcelReport-Takeda - MM Maintenance-Real-world Evidence-</t>
-  </si>
-  <si>
     <t>WordReport-Takeda - MM Maintenance-Real-world Evidence-</t>
   </si>
   <si>
-    <t>ExcelReport-NewImportLogic_1 - Test_Automation_1-Clinical-</t>
-  </si>
-  <si>
-    <t>WordReport-NewImportLogic_1 - Test_Automation_1-Clinical-</t>
+    <t>StandardExcelReport-Takeda - MM Maintenance-Clinical-2023_</t>
+  </si>
+  <si>
+    <t>StandardExcelReport-Takeda - MM Maintenance-Economic-2023_</t>
+  </si>
+  <si>
+    <t>StandardExcelReport-Takeda - MM Maintenance-Quality of Life-2023_</t>
+  </si>
+  <si>
+    <t>StandardExcelReport-Takeda - MM Maintenance-Real-world Evidence-2023_</t>
+  </si>
+  <si>
+    <t>ExcelReport-Takeda-MM Maintenance-Clinical-</t>
+  </si>
+  <si>
+    <t>ExcelReport-Takeda-MM Maintenance-Economic-</t>
+  </si>
+  <si>
+    <t>ExcelReport-Takeda-MM Maintenance-Quality of Life-</t>
+  </si>
+  <si>
+    <t>ExcelReport-Takeda-MM Maintenance-Real-world Evidence-</t>
   </si>
 </sst>
 </file>
@@ -493,10 +478,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G18"/>
+  <dimension ref="A1:G15"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="E1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="24.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -506,7 +491,7 @@
     <col min="4" max="4" width="76" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="87.21875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="69.33203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="64.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="76.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
@@ -526,7 +511,7 @@
         <v>5</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="G1" t="s">
         <v>21</v>
@@ -540,7 +525,7 @@
         <v>17</v>
       </c>
       <c r="C2" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="D2" t="s">
         <v>6</v>
@@ -549,10 +534,10 @@
         <v>10</v>
       </c>
       <c r="F2" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="G2" t="s">
-        <v>22</v>
+        <v>33</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
@@ -569,10 +554,10 @@
         <v>11</v>
       </c>
       <c r="F3" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="G3" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
@@ -589,10 +574,10 @@
         <v>12</v>
       </c>
       <c r="F4" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="G4" t="s">
-        <v>45</v>
+        <v>29</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
@@ -609,15 +594,15 @@
         <v>13</v>
       </c>
       <c r="F5" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="G5" t="s">
-        <v>23</v>
+        <v>34</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="G6" t="s">
-        <v>24</v>
+        <v>38</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
@@ -628,7 +613,7 @@
         <v>15</v>
       </c>
       <c r="C7" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="D7" t="s">
         <v>6</v>
@@ -637,10 +622,10 @@
         <v>10</v>
       </c>
       <c r="F7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G7" t="s">
         <v>30</v>
-      </c>
-      <c r="G7" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
@@ -657,10 +642,10 @@
         <v>11</v>
       </c>
       <c r="F8" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="G8" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
@@ -677,10 +662,10 @@
         <v>12</v>
       </c>
       <c r="F9" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="G9" t="s">
-        <v>27</v>
+        <v>39</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
@@ -697,10 +682,10 @@
         <v>13</v>
       </c>
       <c r="F10" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="G10" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
@@ -713,16 +698,16 @@
         <v>20</v>
       </c>
       <c r="B12" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="C12" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="D12" t="s">
         <v>6</v>
       </c>
       <c r="G12" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
@@ -736,7 +721,7 @@
         <v>7</v>
       </c>
       <c r="G13" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
@@ -749,9 +734,6 @@
       <c r="D14" t="s">
         <v>8</v>
       </c>
-      <c r="G14" t="s">
-        <v>39</v>
-      </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
@@ -762,24 +744,6 @@
       </c>
       <c r="D15" t="s">
         <v>9</v>
-      </c>
-      <c r="G15" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="G16" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="17" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G17" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="18" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G18" t="s">
-        <v>43</v>
       </c>
     </row>
   </sheetData>

--- a/Testdata/ManageQADataPage_Data_PROD.xlsx
+++ b/Testdata/ManageQADataPage_Data_PROD.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VersionControl\pse.autotest\Testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{007200DA-FFEB-4211-AFE6-EE8E04974730}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78A21A29-203F-4789-910D-C57B9DAF3615}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="42">
   <si>
     <t>Economic</t>
   </si>
@@ -136,15 +136,6 @@
     <t>WordReport-Takeda - MM Maintenance-Real-world Evidence-</t>
   </si>
   <si>
-    <t>StandardExcelReport-Takeda - MM Maintenance-Clinical-2023_</t>
-  </si>
-  <si>
-    <t>StandardExcelReport-Takeda - MM Maintenance-Economic-2023_</t>
-  </si>
-  <si>
-    <t>StandardExcelReport-Takeda - MM Maintenance-Quality of Life-2023_</t>
-  </si>
-  <si>
     <t>StandardExcelReport-Takeda - MM Maintenance-Real-world Evidence-2023_</t>
   </si>
   <si>
@@ -158,6 +149,18 @@
   </si>
   <si>
     <t>ExcelReport-Takeda-MM Maintenance-Real-world Evidence-</t>
+  </si>
+  <si>
+    <t>StandardExcelReport-Takeda-MM Maintenance-Clinical-2023_</t>
+  </si>
+  <si>
+    <t>StandardExcelReport-Takeda-MM Maintenance-Economic-2023_</t>
+  </si>
+  <si>
+    <t>StandardExcelReport-Takeda-MM Maintenance-Quality of Life-2023_</t>
+  </si>
+  <si>
+    <t>StandardExcelReport-Takeda-MM Maintenance-Real-world Evidence-2023_</t>
   </si>
 </sst>
 </file>
@@ -480,8 +483,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="24.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -537,7 +540,7 @@
         <v>23</v>
       </c>
       <c r="G2" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
@@ -557,7 +560,7 @@
         <v>24</v>
       </c>
       <c r="G3" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
@@ -597,12 +600,12 @@
         <v>26</v>
       </c>
       <c r="G5" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="G6" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
@@ -645,7 +648,7 @@
         <v>24</v>
       </c>
       <c r="G8" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
@@ -665,7 +668,7 @@
         <v>25</v>
       </c>
       <c r="G9" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
@@ -690,7 +693,7 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="G11" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
@@ -707,7 +710,7 @@
         <v>6</v>
       </c>
       <c r="G12" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">

--- a/Testdata/ManageQADataPage_Data_PROD.xlsx
+++ b/Testdata/ManageQADataPage_Data_PROD.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26501"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VersionControl\pse.autotest\Testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78A21A29-203F-4789-910D-C57B9DAF3615}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54C5A2E2-89F9-43BE-873A-2B3D3459EB8D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="52">
   <si>
     <t>Economic</t>
   </si>
@@ -91,9 +91,6 @@
     <t>Test - Test</t>
   </si>
   <si>
-    <t>QA_Population</t>
-  </si>
-  <si>
     <t>Name</t>
   </si>
   <si>
@@ -136,9 +133,6 @@
     <t>WordReport-Takeda - MM Maintenance-Real-world Evidence-</t>
   </si>
   <si>
-    <t>StandardExcelReport-Takeda - MM Maintenance-Real-world Evidence-2023_</t>
-  </si>
-  <si>
     <t>ExcelReport-Takeda-MM Maintenance-Clinical-</t>
   </si>
   <si>
@@ -161,6 +155,42 @@
   </si>
   <si>
     <t>StandardExcelReport-Takeda-MM Maintenance-Real-world Evidence-2023_</t>
+  </si>
+  <si>
+    <t>Population</t>
+  </si>
+  <si>
+    <t>Population_Radio_button</t>
+  </si>
+  <si>
+    <t>Test - Test_radio_button</t>
+  </si>
+  <si>
+    <t>test demo 1234 - test demo 1234_radio_button</t>
+  </si>
+  <si>
+    <t>Takeda - MM Maintenance_radio_button</t>
+  </si>
+  <si>
+    <t>slrtype</t>
+  </si>
+  <si>
+    <t>slrtype_Radio_button</t>
+  </si>
+  <si>
+    <t>Clinical_radio_button</t>
+  </si>
+  <si>
+    <t>Economic_radio_button</t>
+  </si>
+  <si>
+    <t>Quality of Life</t>
+  </si>
+  <si>
+    <t>Quality of Life_radio_button</t>
+  </si>
+  <si>
+    <t>Real-world Evidence_radio_button</t>
   </si>
 </sst>
 </file>
@@ -481,46 +511,56 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G15"/>
+  <dimension ref="A1:J15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E1" sqref="E1:F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="24.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="5.88671875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.77734375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="76" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="87.21875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="69.33203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="76.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.77734375" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="17.77734375" customWidth="1"/>
+    <col min="7" max="7" width="76" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="87.21875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="69.33203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="76.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>18</v>
+        <v>40</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="G1" t="s">
+      <c r="I1" s="1" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="J1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>16</v>
       </c>
@@ -528,87 +568,114 @@
         <v>17</v>
       </c>
       <c r="C2" t="s">
-        <v>27</v>
+        <v>42</v>
       </c>
       <c r="D2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F2" t="s">
+        <v>47</v>
+      </c>
+      <c r="G2" t="s">
         <v>6</v>
       </c>
-      <c r="E2" t="s">
+      <c r="H2" t="s">
         <v>10</v>
       </c>
-      <c r="F2" t="s">
-        <v>23</v>
-      </c>
-      <c r="G2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="I2" t="s">
+        <v>22</v>
+      </c>
+      <c r="J2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>16</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>0</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F3" t="s">
+        <v>48</v>
+      </c>
+      <c r="G3" t="s">
         <v>7</v>
       </c>
-      <c r="E3" t="s">
+      <c r="H3" t="s">
         <v>11</v>
       </c>
-      <c r="F3" t="s">
-        <v>24</v>
-      </c>
-      <c r="G3" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="I3" t="s">
+        <v>23</v>
+      </c>
+      <c r="J3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>16</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>1</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
+        <v>49</v>
+      </c>
+      <c r="F4" t="s">
+        <v>50</v>
+      </c>
+      <c r="G4" t="s">
         <v>8</v>
       </c>
-      <c r="E4" t="s">
+      <c r="H4" t="s">
         <v>12</v>
       </c>
-      <c r="F4" t="s">
-        <v>25</v>
-      </c>
-      <c r="G4" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="I4" t="s">
+        <v>24</v>
+      </c>
+      <c r="J4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>16</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>2</v>
       </c>
-      <c r="D5" t="s">
+      <c r="E5" t="s">
+        <v>2</v>
+      </c>
+      <c r="F5" t="s">
+        <v>51</v>
+      </c>
+      <c r="G5" t="s">
         <v>9</v>
       </c>
-      <c r="E5" t="s">
+      <c r="H5" t="s">
         <v>13</v>
       </c>
-      <c r="F5" t="s">
-        <v>26</v>
-      </c>
-      <c r="G5" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="G6" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="I5" t="s">
+        <v>25</v>
+      </c>
+      <c r="J5" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="J6" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>14</v>
       </c>
@@ -616,136 +683,190 @@
         <v>15</v>
       </c>
       <c r="C7" t="s">
-        <v>27</v>
+        <v>43</v>
       </c>
       <c r="D7" t="s">
+        <v>26</v>
+      </c>
+      <c r="E7" t="s">
+        <v>26</v>
+      </c>
+      <c r="F7" t="s">
+        <v>47</v>
+      </c>
+      <c r="G7" t="s">
         <v>6</v>
       </c>
-      <c r="E7" t="s">
+      <c r="H7" t="s">
         <v>10</v>
       </c>
-      <c r="F7" t="s">
-        <v>23</v>
-      </c>
-      <c r="G7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="I7" t="s">
+        <v>22</v>
+      </c>
+      <c r="J7" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>14</v>
       </c>
-      <c r="C8" t="s">
+      <c r="D8" t="s">
         <v>0</v>
       </c>
-      <c r="D8" t="s">
+      <c r="E8" t="s">
+        <v>0</v>
+      </c>
+      <c r="F8" t="s">
+        <v>48</v>
+      </c>
+      <c r="G8" t="s">
         <v>7</v>
       </c>
-      <c r="E8" t="s">
+      <c r="H8" t="s">
         <v>11</v>
       </c>
-      <c r="F8" t="s">
-        <v>24</v>
-      </c>
-      <c r="G8" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="I8" t="s">
+        <v>23</v>
+      </c>
+      <c r="J8" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>14</v>
       </c>
-      <c r="C9" t="s">
+      <c r="D9" t="s">
         <v>1</v>
       </c>
-      <c r="D9" t="s">
+      <c r="E9" t="s">
+        <v>49</v>
+      </c>
+      <c r="F9" t="s">
+        <v>50</v>
+      </c>
+      <c r="G9" t="s">
         <v>8</v>
       </c>
-      <c r="E9" t="s">
+      <c r="H9" t="s">
         <v>12</v>
       </c>
-      <c r="F9" t="s">
-        <v>25</v>
-      </c>
-      <c r="G9" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="I9" t="s">
+        <v>24</v>
+      </c>
+      <c r="J9" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>14</v>
       </c>
-      <c r="C10" t="s">
+      <c r="D10" t="s">
         <v>2</v>
       </c>
-      <c r="D10" t="s">
+      <c r="E10" t="s">
+        <v>2</v>
+      </c>
+      <c r="F10" t="s">
+        <v>51</v>
+      </c>
+      <c r="G10" t="s">
         <v>9</v>
       </c>
-      <c r="E10" t="s">
+      <c r="H10" t="s">
         <v>13</v>
       </c>
-      <c r="F10" t="s">
+      <c r="I10" t="s">
+        <v>25</v>
+      </c>
+      <c r="J10" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="J11" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>19</v>
+      </c>
+      <c r="B12" t="s">
+        <v>27</v>
+      </c>
+      <c r="C12" t="s">
+        <v>44</v>
+      </c>
+      <c r="D12" t="s">
         <v>26</v>
       </c>
-      <c r="G10" t="s">
+      <c r="E12" t="s">
+        <v>26</v>
+      </c>
+      <c r="F12" t="s">
+        <v>47</v>
+      </c>
+      <c r="G12" t="s">
+        <v>6</v>
+      </c>
+      <c r="J12" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>19</v>
+      </c>
+      <c r="D13" t="s">
+        <v>0</v>
+      </c>
+      <c r="E13" t="s">
+        <v>0</v>
+      </c>
+      <c r="F13" t="s">
+        <v>48</v>
+      </c>
+      <c r="G13" t="s">
+        <v>7</v>
+      </c>
+      <c r="J13" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="G11" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>20</v>
-      </c>
-      <c r="B12" t="s">
-        <v>28</v>
-      </c>
-      <c r="C12" t="s">
-        <v>27</v>
-      </c>
-      <c r="D12" t="s">
-        <v>6</v>
-      </c>
-      <c r="G12" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>20</v>
-      </c>
-      <c r="C13" t="s">
-        <v>0</v>
-      </c>
-      <c r="D13" t="s">
-        <v>7</v>
-      </c>
-      <c r="G13" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>20</v>
-      </c>
-      <c r="C14" t="s">
+        <v>19</v>
+      </c>
+      <c r="D14" t="s">
         <v>1</v>
       </c>
-      <c r="D14" t="s">
+      <c r="E14" t="s">
+        <v>49</v>
+      </c>
+      <c r="F14" t="s">
+        <v>50</v>
+      </c>
+      <c r="G14" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>20</v>
-      </c>
-      <c r="C15" t="s">
+        <v>19</v>
+      </c>
+      <c r="D15" t="s">
         <v>2</v>
       </c>
-      <c r="D15" t="s">
+      <c r="E15" t="s">
+        <v>2</v>
+      </c>
+      <c r="F15" t="s">
+        <v>51</v>
+      </c>
+      <c r="G15" t="s">
         <v>9</v>
       </c>
     </row>
